--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Wnt5a-Ror1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Wnt5a-Ror1.xlsx
@@ -540,10 +540,10 @@
         <v>22.544385</v>
       </c>
       <c r="I2">
-        <v>0.992147452492356</v>
+        <v>0.977669497583861</v>
       </c>
       <c r="J2">
-        <v>0.992147452492356</v>
+        <v>0.977669497583861</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.4041730000000001</v>
+        <v>1.126151</v>
       </c>
       <c r="N2">
-        <v>1.212519</v>
+        <v>3.378452999999999</v>
       </c>
       <c r="O2">
-        <v>0.02243568820547801</v>
+        <v>0.1133308523309815</v>
       </c>
       <c r="P2">
-        <v>0.02243568820547801</v>
+        <v>0.1133308523309815</v>
       </c>
       <c r="Q2">
-        <v>3.037277239535</v>
+        <v>8.462793904044998</v>
       </c>
       <c r="R2">
-        <v>27.335495155815</v>
+        <v>76.16514513640499</v>
       </c>
       <c r="S2">
-        <v>0.02225951089797781</v>
+        <v>0.1108001174591815</v>
       </c>
       <c r="T2">
-        <v>0.02225951089797781</v>
+        <v>0.1108001174591814</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,10 +602,10 @@
         <v>22.544385</v>
       </c>
       <c r="I3">
-        <v>0.992147452492356</v>
+        <v>0.977669497583861</v>
       </c>
       <c r="J3">
-        <v>0.992147452492356</v>
+        <v>0.977669497583861</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,28 +614,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>6.800141333333332</v>
+        <v>6.800141333333333</v>
       </c>
       <c r="N3">
         <v>20.400424</v>
       </c>
       <c r="O3">
-        <v>0.377476602118029</v>
+        <v>0.6843361265743261</v>
       </c>
       <c r="P3">
-        <v>0.377476602118029</v>
+        <v>0.6843361265743262</v>
       </c>
       <c r="Q3">
-        <v>51.10166809102665</v>
+        <v>51.10166809102666</v>
       </c>
       <c r="R3">
-        <v>459.9150128192399</v>
+        <v>459.91501281924</v>
       </c>
       <c r="S3">
-        <v>0.3745124491668732</v>
+        <v>0.6690545570464069</v>
       </c>
       <c r="T3">
-        <v>0.3745124491668732</v>
+        <v>0.669054557046407</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,10 +664,10 @@
         <v>22.544385</v>
       </c>
       <c r="I4">
-        <v>0.992147452492356</v>
+        <v>0.977669497583861</v>
       </c>
       <c r="J4">
-        <v>0.992147452492356</v>
+        <v>0.977669497583861</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>10.81042166666667</v>
+        <v>2.010551666666667</v>
       </c>
       <c r="N4">
-        <v>32.431265</v>
+        <v>6.031655</v>
       </c>
       <c r="O4">
-        <v>0.6000877096764932</v>
+        <v>0.2023330210946923</v>
       </c>
       <c r="P4">
-        <v>0.6000877096764931</v>
+        <v>0.2023330210946923</v>
       </c>
       <c r="Q4">
-        <v>81.23810268855834</v>
+        <v>15.10888361190833</v>
       </c>
       <c r="R4">
-        <v>731.142924197025</v>
+        <v>135.979952507175</v>
       </c>
       <c r="S4">
-        <v>0.5953754924275052</v>
+        <v>0.1978148230782726</v>
       </c>
       <c r="T4">
-        <v>0.5953754924275051</v>
+        <v>0.1978148230782726</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,22 +714,22 @@
         <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.05947733333333333</v>
+        <v>0.171642</v>
       </c>
       <c r="H5">
-        <v>0.178432</v>
+        <v>0.514926</v>
       </c>
       <c r="I5">
-        <v>0.007852547507643968</v>
+        <v>0.02233050241613897</v>
       </c>
       <c r="J5">
-        <v>0.00785254750764397</v>
+        <v>0.02233050241613898</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.4041730000000001</v>
+        <v>1.126151</v>
       </c>
       <c r="N5">
-        <v>1.212519</v>
+        <v>3.378452999999999</v>
       </c>
       <c r="O5">
-        <v>0.02243568820547801</v>
+        <v>0.1133308523309815</v>
       </c>
       <c r="P5">
-        <v>0.02243568820547801</v>
+        <v>0.1133308523309815</v>
       </c>
       <c r="Q5">
-        <v>0.02403913224533334</v>
+        <v>0.193294809942</v>
       </c>
       <c r="R5">
-        <v>0.216352190208</v>
+        <v>1.739653289478</v>
       </c>
       <c r="S5">
-        <v>0.0001761773075002035</v>
+        <v>0.002530734871800072</v>
       </c>
       <c r="T5">
-        <v>0.0001761773075002035</v>
+        <v>0.002530734871800072</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,22 +776,22 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.05947733333333333</v>
+        <v>0.171642</v>
       </c>
       <c r="H6">
-        <v>0.178432</v>
+        <v>0.514926</v>
       </c>
       <c r="I6">
-        <v>0.007852547507643968</v>
+        <v>0.02233050241613897</v>
       </c>
       <c r="J6">
-        <v>0.00785254750764397</v>
+        <v>0.02233050241613898</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -800,28 +800,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.800141333333332</v>
+        <v>6.800141333333333</v>
       </c>
       <c r="N6">
         <v>20.400424</v>
       </c>
       <c r="O6">
-        <v>0.377476602118029</v>
+        <v>0.6843361265743261</v>
       </c>
       <c r="P6">
-        <v>0.377476602118029</v>
+        <v>0.6843361265743262</v>
       </c>
       <c r="Q6">
-        <v>0.4044542727964444</v>
+        <v>1.167189858736</v>
       </c>
       <c r="R6">
-        <v>3.640088455168</v>
+        <v>10.504708728624</v>
       </c>
       <c r="S6">
-        <v>0.002964152951155842</v>
+        <v>0.01528156952791917</v>
       </c>
       <c r="T6">
-        <v>0.002964152951155843</v>
+        <v>0.01528156952791918</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,22 +838,22 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.05947733333333333</v>
+        <v>0.171642</v>
       </c>
       <c r="H7">
-        <v>0.178432</v>
+        <v>0.514926</v>
       </c>
       <c r="I7">
-        <v>0.007852547507643968</v>
+        <v>0.02233050241613897</v>
       </c>
       <c r="J7">
-        <v>0.00785254750764397</v>
+        <v>0.02233050241613898</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>10.81042166666667</v>
+        <v>2.010551666666667</v>
       </c>
       <c r="N7">
-        <v>32.431265</v>
+        <v>6.031655</v>
       </c>
       <c r="O7">
-        <v>0.6000877096764932</v>
+        <v>0.2023330210946923</v>
       </c>
       <c r="P7">
-        <v>0.6000877096764931</v>
+        <v>0.2023330210946923</v>
       </c>
       <c r="Q7">
-        <v>0.6429750529422223</v>
+        <v>0.34509510917</v>
       </c>
       <c r="R7">
-        <v>5.786775476480001</v>
+        <v>3.10585598253</v>
       </c>
       <c r="S7">
-        <v>0.004712217248987923</v>
+        <v>0.004518198016419724</v>
       </c>
       <c r="T7">
-        <v>0.004712217248987923</v>
+        <v>0.004518198016419724</v>
       </c>
     </row>
   </sheetData>
